--- a/biology/Botanique/Caraipa/Caraipa.xlsx
+++ b/biology/Botanique/Caraipa/Caraipa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caraipa est un genre de plantes à fleurs de la famille des Calophyllaceae, comprenant 29 à 69 espèces, et dont l'espèce type est Caraipa parvifolia Aubl..
 </t>
@@ -511,9 +523,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[2] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « CARAIPA. (Tabula 223. Fig. 1.)
 CAL. Perianthium monophyllum, quinquepartitum ; laciniis villoſis, ſubrotundis. 
 COR. . . . 
@@ -549,9 +563,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (7 mars 2022)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (7 mars 2022) :
 Caraipa acuminata Rich., 1886
 Caraipa acutata F.N.Cabral
 Caraipa ampla Ducke
@@ -599,7 +615,7 @@
 Caraipa utilis R.Vásquez
 Caraipa valioi Paula
 Caraipa yutajensis F.N.Cabral
-Selon Catalogue of Life                                   (1 août 2018)[4] :
+Selon Catalogue of Life                                   (1 août 2018) :
 Caraipa ampla Ducke
 Caraipa andina Aymard &amp; L.M.Campb.
 Caraipa antioquensis F.N.Cabral
@@ -638,7 +654,7 @@
 Caraipa tumescens F.N.Cabral
 Caraipa utilis R. Vásquez M.
 Caraipa valioi Paula
-Selon The Plant List            (1 août 2018)[5] :
+Selon The Plant List            (1 août 2018) :
 Caraipa ampla Ducke
 Caraipa andina Aymard &amp; L.M.Campb.
 Caraipa aracaensis Kubitzki
@@ -668,7 +684,7 @@
 Caraipa tereticaulis Tul.
 Caraipa utilis R.Vásquez
 Caraipa valioi Paula
-Selon Tropicos                                           (1 août 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (1 août 2018) (Attention liste brute contenant possiblement des synonymes) :
 Caraipa acutata F.N. Cabral
 Caraipa ampla Ducke
 Caraipa andina Aymard &amp; L.M. Campb.
